--- a/Rmarkdown/Datasets/portugal_retail_volume_price.xlsx
+++ b/Rmarkdown/Datasets/portugal_retail_volume_price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\busop\All Files - ORIGINAL FILES OF DESKTOP LINKS\Github\market-analysis-2024-2025\Rmarkdown\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F54303-B22C-4C2A-AD00-FF8815DB33FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8328361-148C-4662-9D07-C6F27F9B02C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{FE100ACD-5B7E-469E-A665-8B13D3A5174B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE100ACD-5B7E-469E-A665-8B13D3A5174B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>World</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Current Constant P</t>
+  </si>
+  <si>
+    <t>Confectionery</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Savoury Snacks</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="##,#00"/>
+    <numFmt numFmtId="164" formatCode="##,#00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -161,7 +170,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -183,7 +192,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
@@ -191,7 +200,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9">
@@ -540,13 +561,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121AEC91-EF99-4964-A100-D04425483A94}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -856,6 +882,378 @@
       </c>
       <c r="T5" s="3">
         <v>76.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>510.9</v>
+      </c>
+      <c r="G6" s="7">
+        <v>485.7</v>
+      </c>
+      <c r="H6" s="7">
+        <v>463.9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>467.2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>475.7</v>
+      </c>
+      <c r="K6" s="7">
+        <v>482</v>
+      </c>
+      <c r="L6" s="7">
+        <v>492.8</v>
+      </c>
+      <c r="M6" s="7">
+        <v>503.6</v>
+      </c>
+      <c r="N6" s="7">
+        <v>510.2</v>
+      </c>
+      <c r="O6" s="7">
+        <v>525.9</v>
+      </c>
+      <c r="P6" s="7">
+        <v>570.70000000000005</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>579.5</v>
+      </c>
+      <c r="R6" s="7">
+        <v>561.79999999999995</v>
+      </c>
+      <c r="S6" s="7">
+        <v>597.9</v>
+      </c>
+      <c r="T6" s="7">
+        <v>620.29999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="J7" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="K7" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>28.6</v>
+      </c>
+      <c r="M7" s="7">
+        <v>29.2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>29.8</v>
+      </c>
+      <c r="O7" s="7">
+        <v>30.5</v>
+      </c>
+      <c r="P7" s="7">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>33.9</v>
+      </c>
+      <c r="R7" s="7">
+        <v>35</v>
+      </c>
+      <c r="S7" s="7">
+        <v>35.6</v>
+      </c>
+      <c r="T7" s="7">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>396.4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>383.7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>370.3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>377.3</v>
+      </c>
+      <c r="J8" s="7">
+        <v>374.4</v>
+      </c>
+      <c r="K8" s="7">
+        <v>389.2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>424.7</v>
+      </c>
+      <c r="M8" s="7">
+        <v>473.7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>512.29999999999995</v>
+      </c>
+      <c r="O8" s="7">
+        <v>541.29999999999995</v>
+      </c>
+      <c r="P8" s="7">
+        <v>508.8</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>518.9</v>
+      </c>
+      <c r="R8" s="7">
+        <v>507.8</v>
+      </c>
+      <c r="S8" s="7">
+        <v>550.9</v>
+      </c>
+      <c r="T8" s="7">
+        <v>586.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>40.6</v>
+      </c>
+      <c r="H9" s="7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="I9" s="7">
+        <v>41.9</v>
+      </c>
+      <c r="J9" s="7">
+        <v>42.3</v>
+      </c>
+      <c r="K9" s="7">
+        <v>43.6</v>
+      </c>
+      <c r="L9" s="7">
+        <v>46.8</v>
+      </c>
+      <c r="M9" s="7">
+        <v>51.9</v>
+      </c>
+      <c r="N9" s="7">
+        <v>56.4</v>
+      </c>
+      <c r="O9" s="7">
+        <v>59.6</v>
+      </c>
+      <c r="P9" s="7">
+        <v>55.3</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="R9" s="7">
+        <v>57.9</v>
+      </c>
+      <c r="S9" s="7">
+        <v>60.7</v>
+      </c>
+      <c r="T9" s="7">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>303.7</v>
+      </c>
+      <c r="G10" s="7">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="H10" s="7">
+        <v>301.3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>308.3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>309.2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>313.3</v>
+      </c>
+      <c r="L10" s="7">
+        <v>321.39999999999998</v>
+      </c>
+      <c r="M10" s="7">
+        <v>340.7</v>
+      </c>
+      <c r="N10" s="7">
+        <v>360.4</v>
+      </c>
+      <c r="O10" s="7">
+        <v>382.5</v>
+      </c>
+      <c r="P10" s="7">
+        <v>419.5</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>439.4</v>
+      </c>
+      <c r="R10" s="7">
+        <v>435.1</v>
+      </c>
+      <c r="S10" s="7">
+        <v>463.1</v>
+      </c>
+      <c r="T10" s="7">
+        <v>484.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>36.1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>36.1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>36.6</v>
+      </c>
+      <c r="J11" s="7">
+        <v>36.6</v>
+      </c>
+      <c r="K11" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="L11" s="7">
+        <v>39</v>
+      </c>
+      <c r="M11" s="7">
+        <v>40.6</v>
+      </c>
+      <c r="N11" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="O11" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="P11" s="7">
+        <v>47.8</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="R11" s="7">
+        <v>50.6</v>
+      </c>
+      <c r="S11" s="7">
+        <v>52</v>
+      </c>
+      <c r="T11" s="7">
+        <v>53.3</v>
       </c>
     </row>
   </sheetData>
